--- a/xlsx/柴电动力_intext.xlsx
+++ b/xlsx/柴电动力_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>柴电动力</t>
   </si>
@@ -29,19 +29,19 @@
     <t>混合动力</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_柴电动力</t>
+    <t>政策_政策_混合动力车辆_柴电动力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E5%8B%95%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>傳動系統</t>
+    <t>传动系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B4%E6%B2%B9%E6%A9%9F</t>
   </si>
   <si>
-    <t>柴油機</t>
+    <t>柴油机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E7%94%B5%E6%9C%BA</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8A%9B</t>
   </si>
   <si>
-    <t>電力</t>
+    <t>电力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%BD%E5%BC%95%E9%9B%BB%E6%A9%9F</t>
   </si>
   <si>
-    <t>牽引電機</t>
+    <t>牵引电机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B7%AF%E5%88%97%E8%BB%8A</t>
   </si>
   <si>
-    <t>鐵路列車</t>
+    <t>铁路列车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E7%BA%BF%E5%9E%8B</t>
@@ -221,37 +221,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E9%90%B5%E8%B7%AF%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力鐵路車輛</t>
+    <t>混合动力铁路车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%94%E9%9B%BB%E5%8B%95%E8%BB%8A</t>
   </si>
   <si>
-    <t>純電動車</t>
+    <t>纯电动车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%B1%A0%E9%9B%BB%E5%8B%95%E8%BB%8A</t>
   </si>
   <si>
-    <t>電池電動車</t>
+    <t>电池电动车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>電動機</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%87%83%E6%A9%9F</t>
-  </si>
-  <si>
-    <t>內燃機</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B4%E6%B2%B9</t>
@@ -1713,7 +1707,7 @@
         <v>75</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1739,10 +1733,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1768,10 +1762,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>20</v>
@@ -1797,10 +1791,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1826,10 +1820,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
